--- a/祖宅布置物料表.xlsx
+++ b/祖宅布置物料表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25780" windowHeight="14900"/>
+    <workbookView windowWidth="30020" windowHeight="15140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>布置地点</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>副</t>
+  </si>
+  <si>
+    <t>宽28cm*长178cm</t>
   </si>
   <si>
     <t>一楼左前卧室</t>
@@ -120,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,60 +139,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,15 +153,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +191,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -235,22 +253,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,21 +276,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,19 +296,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,19 +422,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,133 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,56 +481,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,9 +510,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,147 +572,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,15 +731,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,7 +1060,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1112,26 +1109,28 @@
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1139,19 +1138,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1159,7 +1158,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1171,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
         <v>6.5</v>
@@ -1181,19 +1180,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1201,7 +1200,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1219,16 +1218,16 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1236,7 +1235,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -1248,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1256,16 +1255,16 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1273,7 +1272,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
@@ -1285,7 +1284,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1293,7 +1292,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -1305,7 +1304,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1313,16 +1312,16 @@
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1330,7 +1329,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
@@ -1348,16 +1347,16 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1365,7 +1364,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
@@ -1377,7 +1376,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1385,16 +1384,16 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1402,7 +1401,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>9</v>
@@ -1414,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1422,16 +1421,16 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1439,19 +1438,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1459,19 +1458,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1479,19 +1478,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1499,7 +1498,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
@@ -1511,31 +1510,31 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1543,39 +1542,39 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="1">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="3">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
